--- a/l-from-2015.xlsx
+++ b/l-from-2015.xlsx
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B860"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1663,7 +1663,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>42383</v>
       </c>
       <c r="B162">
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>42384</v>
       </c>
       <c r="B163">
@@ -1679,7 +1679,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>42385</v>
       </c>
       <c r="B164">
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>42386</v>
       </c>
       <c r="B165">
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>42387</v>
       </c>
       <c r="B166">
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>42388</v>
       </c>
       <c r="B167">
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>42389</v>
       </c>
       <c r="B168">
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>42390</v>
       </c>
       <c r="B169">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>42391</v>
       </c>
       <c r="B170">
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>42392</v>
       </c>
       <c r="B171">
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>42393</v>
       </c>
       <c r="B172">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>42394</v>
       </c>
       <c r="B173">
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>42395</v>
       </c>
       <c r="B174">
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>42396</v>
       </c>
       <c r="B175">
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>42397</v>
       </c>
       <c r="B176">
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>42398</v>
       </c>
       <c r="B177">
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>42399</v>
       </c>
       <c r="B178">
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>42400</v>
       </c>
       <c r="B179">
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>42401</v>
       </c>
       <c r="B180">
@@ -1815,7 +1815,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>42402</v>
       </c>
       <c r="B181">
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>42403</v>
       </c>
       <c r="B182">
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>42404</v>
       </c>
       <c r="B183">
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>42405</v>
       </c>
       <c r="B184">
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>42406</v>
       </c>
       <c r="B185">
@@ -1855,7 +1855,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>42407</v>
       </c>
       <c r="B186">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>42408</v>
       </c>
       <c r="B187">
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>42409</v>
       </c>
       <c r="B188">
@@ -1879,7 +1879,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>42410</v>
       </c>
       <c r="B189">
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>42411</v>
       </c>
       <c r="B190">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>42412</v>
       </c>
       <c r="B191">
@@ -1903,7 +1903,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>42413</v>
       </c>
       <c r="B192">
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>42414</v>
       </c>
       <c r="B193">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>42415</v>
       </c>
       <c r="B194">
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>42416</v>
       </c>
       <c r="B195">
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>42417</v>
       </c>
       <c r="B196">
@@ -1943,7 +1943,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>42418</v>
       </c>
       <c r="B197">
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>42419</v>
       </c>
       <c r="B198">
@@ -1959,7 +1959,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>42420</v>
       </c>
       <c r="B199">
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>42421</v>
       </c>
       <c r="B200">
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>42422</v>
       </c>
       <c r="B201">
@@ -1983,7 +1983,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>42423</v>
       </c>
       <c r="B202">
@@ -1991,7 +1991,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>42424</v>
       </c>
       <c r="B203">
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>42425</v>
       </c>
       <c r="B204">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>42426</v>
       </c>
       <c r="B205">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>42427</v>
       </c>
       <c r="B206">
@@ -2023,7 +2023,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>42428</v>
       </c>
       <c r="B207">
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>42429</v>
       </c>
       <c r="B208">
@@ -2039,7 +2039,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>42430</v>
       </c>
       <c r="B209">
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>42431</v>
       </c>
       <c r="B210">
@@ -2055,7 +2055,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>42432</v>
       </c>
       <c r="B211">
@@ -2063,7 +2063,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>42433</v>
       </c>
       <c r="B212">
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>42434</v>
       </c>
       <c r="B213">
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>42435</v>
       </c>
       <c r="B214">
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>42436</v>
       </c>
       <c r="B215">
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>42437</v>
       </c>
       <c r="B216">
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>42438</v>
       </c>
       <c r="B217">
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>42439</v>
       </c>
       <c r="B218">
@@ -2119,7 +2119,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>42440</v>
       </c>
       <c r="B219">
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>42441</v>
       </c>
       <c r="B220">
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>42442</v>
       </c>
       <c r="B221">
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>42443</v>
       </c>
       <c r="B222">
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>42444</v>
       </c>
       <c r="B223">
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>42445</v>
       </c>
       <c r="B224">
@@ -2167,7 +2167,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>42446</v>
       </c>
       <c r="B225">
@@ -2175,7 +2175,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>42447</v>
       </c>
       <c r="B226">
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>42448</v>
       </c>
       <c r="B227">
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>42449</v>
       </c>
       <c r="B228">
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>42450</v>
       </c>
       <c r="B229">
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>42451</v>
       </c>
       <c r="B230">
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>42452</v>
       </c>
       <c r="B231">
@@ -2223,7 +2223,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>42453</v>
       </c>
       <c r="B232">
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>42454</v>
       </c>
       <c r="B233">
@@ -2239,7 +2239,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>42455</v>
       </c>
       <c r="B234">
@@ -2247,7 +2247,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>42456</v>
       </c>
       <c r="B235">
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>42457</v>
       </c>
       <c r="B236">
@@ -2263,7 +2263,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>42458</v>
       </c>
       <c r="B237">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>42459</v>
       </c>
       <c r="B238">
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>42460</v>
       </c>
       <c r="B239">
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>42461</v>
       </c>
       <c r="B240">
@@ -2295,7 +2295,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>42462</v>
       </c>
       <c r="B241">
@@ -2303,7 +2303,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>42463</v>
       </c>
       <c r="B242">
@@ -2311,7 +2311,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>42464</v>
       </c>
       <c r="B243">
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>42465</v>
       </c>
       <c r="B244">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>42466</v>
       </c>
       <c r="B245">
@@ -2335,7 +2335,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>42467</v>
       </c>
       <c r="B246">
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>42468</v>
       </c>
       <c r="B247">
@@ -2351,7 +2351,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>42469</v>
       </c>
       <c r="B248">
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>42470</v>
       </c>
       <c r="B249">
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>42471</v>
       </c>
       <c r="B250">
@@ -2375,7 +2375,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>42472</v>
       </c>
       <c r="B251">
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>42473</v>
       </c>
       <c r="B252">
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>42474</v>
       </c>
       <c r="B253">
@@ -2399,7 +2399,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>42475</v>
       </c>
       <c r="B254">
@@ -2407,7 +2407,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>42476</v>
       </c>
       <c r="B255">
@@ -2415,7 +2415,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>42477</v>
       </c>
       <c r="B256">
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>42478</v>
       </c>
       <c r="B257">
@@ -2431,7 +2431,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>42479</v>
       </c>
       <c r="B258">
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>42480</v>
       </c>
       <c r="B259">
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>42481</v>
       </c>
       <c r="B260">
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>42482</v>
       </c>
       <c r="B261">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>42483</v>
       </c>
       <c r="B262">
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>42484</v>
       </c>
       <c r="B263">
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>42485</v>
       </c>
       <c r="B264">
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>42486</v>
       </c>
       <c r="B265">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>42487</v>
       </c>
       <c r="B266">
@@ -2503,7 +2503,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>42488</v>
       </c>
       <c r="B267">
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>42489</v>
       </c>
       <c r="B268">
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>42490</v>
       </c>
       <c r="B269">
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>42491</v>
       </c>
       <c r="B270">
@@ -2535,7 +2535,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>42492</v>
       </c>
       <c r="B271">
@@ -2543,7 +2543,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>42493</v>
       </c>
       <c r="B272">
@@ -2551,7 +2551,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>42494</v>
       </c>
       <c r="B273">
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>42495</v>
       </c>
       <c r="B274">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>42496</v>
       </c>
       <c r="B275">
@@ -2575,7 +2575,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>42497</v>
       </c>
       <c r="B276">
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>42498</v>
       </c>
       <c r="B277">
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>42499</v>
       </c>
       <c r="B278">
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>42500</v>
       </c>
       <c r="B279">
@@ -2607,7 +2607,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>42501</v>
       </c>
       <c r="B280">
@@ -2615,7 +2615,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>42502</v>
       </c>
       <c r="B281">
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>42503</v>
       </c>
       <c r="B282">
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>42504</v>
       </c>
       <c r="B283">
@@ -2639,7 +2639,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>42505</v>
       </c>
       <c r="B284">
@@ -2647,7 +2647,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>42506</v>
       </c>
       <c r="B285">
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>42507</v>
       </c>
       <c r="B286">
@@ -2663,7 +2663,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>42508</v>
       </c>
       <c r="B287">
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>42509</v>
       </c>
       <c r="B288">
@@ -2679,7 +2679,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>42510</v>
       </c>
       <c r="B289">
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>42511</v>
       </c>
       <c r="B290">
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>42512</v>
       </c>
       <c r="B291">
@@ -2703,7 +2703,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>42513</v>
       </c>
       <c r="B292">
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>42514</v>
       </c>
       <c r="B293">
@@ -2719,7 +2719,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>42515</v>
       </c>
       <c r="B294">
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>42516</v>
       </c>
       <c r="B295">
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>42517</v>
       </c>
       <c r="B296">
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>42518</v>
       </c>
       <c r="B297">
@@ -2751,7 +2751,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>42519</v>
       </c>
       <c r="B298">
@@ -2759,7 +2759,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>42520</v>
       </c>
       <c r="B299">
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>42521</v>
       </c>
       <c r="B300">
@@ -2775,7 +2775,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>42522</v>
       </c>
       <c r="B301">
@@ -2783,7 +2783,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>42523</v>
       </c>
       <c r="B302">
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>42524</v>
       </c>
       <c r="B303">
@@ -2799,7 +2799,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>42525</v>
       </c>
       <c r="B304">
@@ -2807,7 +2807,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>42526</v>
       </c>
       <c r="B305">
@@ -2815,7 +2815,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>42527</v>
       </c>
       <c r="B306">
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>42528</v>
       </c>
       <c r="B307">
@@ -2831,7 +2831,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>42529</v>
       </c>
       <c r="B308">
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>42530</v>
       </c>
       <c r="B309">
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>42531</v>
       </c>
       <c r="B310">
@@ -2855,7 +2855,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>42532</v>
       </c>
       <c r="B311">
@@ -2863,7 +2863,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>42533</v>
       </c>
       <c r="B312">
@@ -2871,7 +2871,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>42534</v>
       </c>
       <c r="B313">
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>42535</v>
       </c>
       <c r="B314">
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>42536</v>
       </c>
       <c r="B315">
@@ -2895,7 +2895,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>42537</v>
       </c>
       <c r="B316">
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>42538</v>
       </c>
       <c r="B317">
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>42539</v>
       </c>
       <c r="B318">
@@ -2919,7 +2919,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>42540</v>
       </c>
       <c r="B319">
@@ -2927,7 +2927,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>42541</v>
       </c>
       <c r="B320">
@@ -2935,7 +2935,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>42542</v>
       </c>
       <c r="B321">
@@ -2943,7 +2943,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>42543</v>
       </c>
       <c r="B322">
@@ -2951,7 +2951,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>42544</v>
       </c>
       <c r="B323">
@@ -2959,7 +2959,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>42545</v>
       </c>
       <c r="B324">
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>42546</v>
       </c>
       <c r="B325">
@@ -2975,7 +2975,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>42547</v>
       </c>
       <c r="B326">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>42548</v>
       </c>
       <c r="B327">
@@ -2991,7 +2991,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>42549</v>
       </c>
       <c r="B328">
@@ -2999,7 +2999,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>42550</v>
       </c>
       <c r="B329">
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>42551</v>
       </c>
       <c r="B330">
@@ -3015,7 +3015,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>42552</v>
       </c>
       <c r="B331">
@@ -3023,7 +3023,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>42553</v>
       </c>
       <c r="B332">
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>42554</v>
       </c>
       <c r="B333">
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>42555</v>
       </c>
       <c r="B334">
@@ -3047,7 +3047,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>42556</v>
       </c>
       <c r="B335">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>42557</v>
       </c>
       <c r="B336">
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>42558</v>
       </c>
       <c r="B337">
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>42559</v>
       </c>
       <c r="B338">
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>42560</v>
       </c>
       <c r="B339">
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>42561</v>
       </c>
       <c r="B340">
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>42562</v>
       </c>
       <c r="B341">
@@ -3103,7 +3103,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>42563</v>
       </c>
       <c r="B342">
@@ -3111,7 +3111,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>42564</v>
       </c>
       <c r="B343">
@@ -3119,7 +3119,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>42565</v>
       </c>
       <c r="B344">
@@ -3127,7 +3127,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>42566</v>
       </c>
       <c r="B345">
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>42567</v>
       </c>
       <c r="B346">
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>42568</v>
       </c>
       <c r="B347">
@@ -3151,7 +3151,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>42569</v>
       </c>
       <c r="B348">
@@ -3159,7 +3159,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>42570</v>
       </c>
       <c r="B349">
@@ -3167,7 +3167,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>42571</v>
       </c>
       <c r="B350">
@@ -3175,7 +3175,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>42572</v>
       </c>
       <c r="B351">
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>42573</v>
       </c>
       <c r="B352">
@@ -3191,7 +3191,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>42574</v>
       </c>
       <c r="B353">
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>42575</v>
       </c>
       <c r="B354">
@@ -3207,7 +3207,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>42576</v>
       </c>
       <c r="B355">
@@ -3215,7 +3215,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>42577</v>
       </c>
       <c r="B356">
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>42578</v>
       </c>
       <c r="B357">
@@ -3231,7 +3231,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>42579</v>
       </c>
       <c r="B358">
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>42580</v>
       </c>
       <c r="B359">
@@ -3247,7 +3247,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>42581</v>
       </c>
       <c r="B360">
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>42582</v>
       </c>
       <c r="B361">
@@ -3263,7 +3263,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>42583</v>
       </c>
       <c r="B362">
@@ -3271,7 +3271,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>42584</v>
       </c>
       <c r="B363">
@@ -3279,7 +3279,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>42585</v>
       </c>
       <c r="B364">
@@ -3287,7 +3287,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>42586</v>
       </c>
       <c r="B365">
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>42587</v>
       </c>
       <c r="B366">
@@ -3303,7 +3303,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>42588</v>
       </c>
       <c r="B367">
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A368">
+      <c r="A368" s="1">
         <v>42589</v>
       </c>
       <c r="B368">
@@ -3319,7 +3319,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>42590</v>
       </c>
       <c r="B369">
@@ -3327,7 +3327,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A370">
+      <c r="A370" s="1">
         <v>42591</v>
       </c>
       <c r="B370">
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A371">
+      <c r="A371" s="1">
         <v>42592</v>
       </c>
       <c r="B371">
@@ -3343,7 +3343,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372">
+      <c r="A372" s="1">
         <v>42593</v>
       </c>
       <c r="B372">
@@ -3351,7 +3351,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A373">
+      <c r="A373" s="1">
         <v>42594</v>
       </c>
       <c r="B373">
@@ -3359,7 +3359,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>42595</v>
       </c>
       <c r="B374">
@@ -3367,7 +3367,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A375">
+      <c r="A375" s="1">
         <v>42596</v>
       </c>
       <c r="B375">
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A376">
+      <c r="A376" s="1">
         <v>42597</v>
       </c>
       <c r="B376">
@@ -3383,7 +3383,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>42598</v>
       </c>
       <c r="B377">
@@ -3391,7 +3391,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A378">
+      <c r="A378" s="1">
         <v>42599</v>
       </c>
       <c r="B378">
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>42600</v>
       </c>
       <c r="B379">
@@ -3407,7 +3407,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A380">
+      <c r="A380" s="1">
         <v>42601</v>
       </c>
       <c r="B380">
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A381">
+      <c r="A381" s="1">
         <v>42602</v>
       </c>
       <c r="B381">
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A382">
+      <c r="A382" s="1">
         <v>42603</v>
       </c>
       <c r="B382">
@@ -3431,7 +3431,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A383">
+      <c r="A383" s="1">
         <v>42604</v>
       </c>
       <c r="B383">
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A384">
+      <c r="A384" s="1">
         <v>42605</v>
       </c>
       <c r="B384">
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A385">
+      <c r="A385" s="1">
         <v>42606</v>
       </c>
       <c r="B385">
@@ -3455,7 +3455,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A386">
+      <c r="A386" s="1">
         <v>42607</v>
       </c>
       <c r="B386">
@@ -3463,7 +3463,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>42608</v>
       </c>
       <c r="B387">
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A388">
+      <c r="A388" s="1">
         <v>42609</v>
       </c>
       <c r="B388">
@@ -3479,7 +3479,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A389">
+      <c r="A389" s="1">
         <v>42610</v>
       </c>
       <c r="B389">
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A390">
+      <c r="A390" s="1">
         <v>42611</v>
       </c>
       <c r="B390">
@@ -3495,7 +3495,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>42612</v>
       </c>
       <c r="B391">
@@ -3503,7 +3503,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A392">
+      <c r="A392" s="1">
         <v>42613</v>
       </c>
       <c r="B392">
@@ -3511,7 +3511,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A393">
+      <c r="A393" s="1">
         <v>42614</v>
       </c>
       <c r="B393">
@@ -3519,7 +3519,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A394">
+      <c r="A394" s="1">
         <v>42615</v>
       </c>
       <c r="B394">
@@ -3527,7 +3527,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A395">
+      <c r="A395" s="1">
         <v>42616</v>
       </c>
       <c r="B395">
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A396">
+      <c r="A396" s="1">
         <v>42617</v>
       </c>
       <c r="B396">
@@ -3543,7 +3543,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A397">
+      <c r="A397" s="1">
         <v>42618</v>
       </c>
       <c r="B397">
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A398">
+      <c r="A398" s="1">
         <v>42619</v>
       </c>
       <c r="B398">
@@ -3559,7 +3559,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A399">
+      <c r="A399" s="1">
         <v>42620</v>
       </c>
       <c r="B399">
@@ -3567,7 +3567,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A400">
+      <c r="A400" s="1">
         <v>42621</v>
       </c>
       <c r="B400">
@@ -3575,7 +3575,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A401">
+      <c r="A401" s="1">
         <v>42622</v>
       </c>
       <c r="B401">
@@ -3583,7 +3583,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>42623</v>
       </c>
       <c r="B402">
@@ -3591,7 +3591,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A403">
+      <c r="A403" s="1">
         <v>42624</v>
       </c>
       <c r="B403">
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>42625</v>
       </c>
       <c r="B404">
@@ -3607,7 +3607,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A405">
+      <c r="A405" s="1">
         <v>42626</v>
       </c>
       <c r="B405">
@@ -3615,7 +3615,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A406">
+      <c r="A406" s="1">
         <v>42627</v>
       </c>
       <c r="B406">
@@ -3623,7 +3623,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A407">
+      <c r="A407" s="1">
         <v>42628</v>
       </c>
       <c r="B407">
@@ -3631,7 +3631,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A408">
+      <c r="A408" s="1">
         <v>42629</v>
       </c>
       <c r="B408">
@@ -3639,7 +3639,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>42630</v>
       </c>
       <c r="B409">
@@ -3647,7 +3647,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A410">
+      <c r="A410" s="1">
         <v>42631</v>
       </c>
       <c r="B410">
@@ -3655,7 +3655,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A411">
+      <c r="A411" s="1">
         <v>42632</v>
       </c>
       <c r="B411">
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A412">
+      <c r="A412" s="1">
         <v>42633</v>
       </c>
       <c r="B412">
@@ -3671,7 +3671,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A413">
+      <c r="A413" s="1">
         <v>42634</v>
       </c>
       <c r="B413">
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A414">
+      <c r="A414" s="1">
         <v>42635</v>
       </c>
       <c r="B414">
@@ -3687,7 +3687,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A415">
+      <c r="A415" s="1">
         <v>42636</v>
       </c>
       <c r="B415">
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A416">
+      <c r="A416" s="1">
         <v>42637</v>
       </c>
       <c r="B416">
@@ -3703,7 +3703,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A417">
+      <c r="A417" s="1">
         <v>42638</v>
       </c>
       <c r="B417">
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>42639</v>
       </c>
       <c r="B418">
@@ -3719,7 +3719,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A419">
+      <c r="A419" s="1">
         <v>42640</v>
       </c>
       <c r="B419">
@@ -3727,7 +3727,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A420">
+      <c r="A420" s="1">
         <v>42641</v>
       </c>
       <c r="B420">
@@ -3735,7 +3735,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>42642</v>
       </c>
       <c r="B421">
@@ -3743,7 +3743,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A422">
+      <c r="A422" s="1">
         <v>42643</v>
       </c>
       <c r="B422">
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A423">
+      <c r="A423" s="1">
         <v>42644</v>
       </c>
       <c r="B423">
@@ -3759,7 +3759,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A424">
+      <c r="A424" s="1">
         <v>42645</v>
       </c>
       <c r="B424">
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A425">
+      <c r="A425" s="1">
         <v>42646</v>
       </c>
       <c r="B425">
@@ -3775,7 +3775,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A426">
+      <c r="A426" s="1">
         <v>42647</v>
       </c>
       <c r="B426">
@@ -3783,7 +3783,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A427">
+      <c r="A427" s="1">
         <v>42648</v>
       </c>
       <c r="B427">
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>42649</v>
       </c>
       <c r="B428">
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A429">
+      <c r="A429" s="1">
         <v>42650</v>
       </c>
       <c r="B429">
@@ -3807,7 +3807,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A430">
+      <c r="A430" s="1">
         <v>42651</v>
       </c>
       <c r="B430">
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A431">
+      <c r="A431" s="1">
         <v>42652</v>
       </c>
       <c r="B431">
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A432">
+      <c r="A432" s="1">
         <v>42653</v>
       </c>
       <c r="B432">
@@ -3831,7 +3831,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>42654</v>
       </c>
       <c r="B433">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A434">
+      <c r="A434" s="1">
         <v>42655</v>
       </c>
       <c r="B434">
@@ -3847,7 +3847,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A435">
+      <c r="A435" s="1">
         <v>42656</v>
       </c>
       <c r="B435">
@@ -3855,7 +3855,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>42657</v>
       </c>
       <c r="B436">
@@ -3863,7 +3863,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>42658</v>
       </c>
       <c r="B437">
@@ -3871,7 +3871,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A438">
+      <c r="A438" s="1">
         <v>42659</v>
       </c>
       <c r="B438">
@@ -3879,7 +3879,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A439">
+      <c r="A439" s="1">
         <v>42660</v>
       </c>
       <c r="B439">
@@ -3887,7 +3887,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A440">
+      <c r="A440" s="1">
         <v>42661</v>
       </c>
       <c r="B440">
@@ -3895,7 +3895,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A441">
+      <c r="A441" s="1">
         <v>42662</v>
       </c>
       <c r="B441">
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>42663</v>
       </c>
       <c r="B442">
@@ -3911,7 +3911,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A443">
+      <c r="A443" s="1">
         <v>42664</v>
       </c>
       <c r="B443">
@@ -3919,7 +3919,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>42665</v>
       </c>
       <c r="B444">
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>42666</v>
       </c>
       <c r="B445">
@@ -3935,7 +3935,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>42667</v>
       </c>
       <c r="B446">
@@ -3943,7 +3943,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A447">
+      <c r="A447" s="1">
         <v>42668</v>
       </c>
       <c r="B447">
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A448">
+      <c r="A448" s="1">
         <v>42669</v>
       </c>
       <c r="B448">
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A449">
+      <c r="A449" s="1">
         <v>42670</v>
       </c>
       <c r="B449">
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A450">
+      <c r="A450" s="1">
         <v>42671</v>
       </c>
       <c r="B450">
@@ -3975,7 +3975,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A451">
+      <c r="A451" s="1">
         <v>42672</v>
       </c>
       <c r="B451">
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A452">
+      <c r="A452" s="1">
         <v>42673</v>
       </c>
       <c r="B452">
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>42674</v>
       </c>
       <c r="B453">
@@ -3999,7 +3999,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A454">
+      <c r="A454" s="1">
         <v>42675</v>
       </c>
       <c r="B454">
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A455">
+      <c r="A455" s="1">
         <v>42676</v>
       </c>
       <c r="B455">
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>42677</v>
       </c>
       <c r="B456">
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>42678</v>
       </c>
       <c r="B457">
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A458">
+      <c r="A458" s="1">
         <v>42679</v>
       </c>
       <c r="B458">
@@ -4039,7 +4039,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A459">
+      <c r="A459" s="1">
         <v>42680</v>
       </c>
       <c r="B459">
@@ -4047,7 +4047,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A460">
+      <c r="A460" s="1">
         <v>42681</v>
       </c>
       <c r="B460">
@@ -4055,7 +4055,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A461">
+      <c r="A461" s="1">
         <v>42682</v>
       </c>
       <c r="B461">
@@ -4063,7 +4063,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>42683</v>
       </c>
       <c r="B462">
@@ -4071,7 +4071,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A463">
+      <c r="A463" s="1">
         <v>42684</v>
       </c>
       <c r="B463">
@@ -4079,7 +4079,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A464">
+      <c r="A464" s="1">
         <v>42685</v>
       </c>
       <c r="B464">
@@ -4087,7 +4087,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A465">
+      <c r="A465" s="1">
         <v>42686</v>
       </c>
       <c r="B465">
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A466">
+      <c r="A466" s="1">
         <v>42687</v>
       </c>
       <c r="B466">
@@ -4103,7 +4103,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A467">
+      <c r="A467" s="1">
         <v>42688</v>
       </c>
       <c r="B467">
@@ -4111,7 +4111,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A468">
+      <c r="A468" s="1">
         <v>42689</v>
       </c>
       <c r="B468">
@@ -4119,7 +4119,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A469">
+      <c r="A469" s="1">
         <v>42690</v>
       </c>
       <c r="B469">
@@ -4127,7 +4127,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>42691</v>
       </c>
       <c r="B470">
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A471">
+      <c r="A471" s="1">
         <v>42692</v>
       </c>
       <c r="B471">
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A472">
+      <c r="A472" s="1">
         <v>42693</v>
       </c>
       <c r="B472">
@@ -4151,7 +4151,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A473">
+      <c r="A473" s="1">
         <v>42694</v>
       </c>
       <c r="B473">
@@ -4159,7 +4159,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A474">
+      <c r="A474" s="1">
         <v>42695</v>
       </c>
       <c r="B474">
@@ -4167,7 +4167,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A475">
+      <c r="A475" s="1">
         <v>42696</v>
       </c>
       <c r="B475">
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A476">
+      <c r="A476" s="1">
         <v>42697</v>
       </c>
       <c r="B476">
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A477">
+      <c r="A477" s="1">
         <v>42698</v>
       </c>
       <c r="B477">
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A478">
+      <c r="A478" s="1">
         <v>42699</v>
       </c>
       <c r="B478">
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A479">
+      <c r="A479" s="1">
         <v>42700</v>
       </c>
       <c r="B479">
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A480">
+      <c r="A480" s="1">
         <v>42701</v>
       </c>
       <c r="B480">
@@ -4215,7 +4215,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>42702</v>
       </c>
       <c r="B481">
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A482">
+      <c r="A482" s="1">
         <v>42703</v>
       </c>
       <c r="B482">
@@ -4231,7 +4231,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A483">
+      <c r="A483" s="1">
         <v>42704</v>
       </c>
       <c r="B483">
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A484">
+      <c r="A484" s="1">
         <v>42705</v>
       </c>
       <c r="B484">
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A485">
+      <c r="A485" s="1">
         <v>42706</v>
       </c>
       <c r="B485">
@@ -4255,7 +4255,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A486">
+      <c r="A486" s="1">
         <v>42707</v>
       </c>
       <c r="B486">
@@ -4263,7 +4263,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A487">
+      <c r="A487" s="1">
         <v>42708</v>
       </c>
       <c r="B487">
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A488">
+      <c r="A488" s="1">
         <v>42709</v>
       </c>
       <c r="B488">
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A489">
+      <c r="A489" s="1">
         <v>42710</v>
       </c>
       <c r="B489">
@@ -4287,7 +4287,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>42711</v>
       </c>
       <c r="B490">
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A491">
+      <c r="A491" s="1">
         <v>42712</v>
       </c>
       <c r="B491">
@@ -4303,7 +4303,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A492">
+      <c r="A492" s="1">
         <v>42713</v>
       </c>
       <c r="B492">
@@ -4311,7 +4311,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A493">
+      <c r="A493" s="1">
         <v>42714</v>
       </c>
       <c r="B493">
@@ -4319,7 +4319,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A494">
+      <c r="A494" s="1">
         <v>42715</v>
       </c>
       <c r="B494">
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A495">
+      <c r="A495" s="1">
         <v>42716</v>
       </c>
       <c r="B495">
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A496">
+      <c r="A496" s="1">
         <v>42717</v>
       </c>
       <c r="B496">
@@ -4343,7 +4343,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>42718</v>
       </c>
       <c r="B497">
@@ -4351,7 +4351,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>42719</v>
       </c>
       <c r="B498">
@@ -4359,7 +4359,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A499">
+      <c r="A499" s="1">
         <v>42720</v>
       </c>
       <c r="B499">
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A500">
+      <c r="A500" s="1">
         <v>42721</v>
       </c>
       <c r="B500">
@@ -4375,7 +4375,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A501">
+      <c r="A501" s="1">
         <v>42722</v>
       </c>
       <c r="B501">
@@ -4383,7 +4383,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A502">
+      <c r="A502" s="1">
         <v>42723</v>
       </c>
       <c r="B502">
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A503">
+      <c r="A503" s="1">
         <v>42724</v>
       </c>
       <c r="B503">
@@ -4399,7 +4399,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A504">
+      <c r="A504" s="1">
         <v>42725</v>
       </c>
       <c r="B504">
@@ -4407,7 +4407,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A505">
+      <c r="A505" s="1">
         <v>42726</v>
       </c>
       <c r="B505">
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A506">
+      <c r="A506" s="1">
         <v>42727</v>
       </c>
       <c r="B506">
@@ -4423,7 +4423,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A507">
+      <c r="A507" s="1">
         <v>42728</v>
       </c>
       <c r="B507">
@@ -4431,7 +4431,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A508">
+      <c r="A508" s="1">
         <v>42729</v>
       </c>
       <c r="B508">
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A509">
+      <c r="A509" s="1">
         <v>42730</v>
       </c>
       <c r="B509">
@@ -4447,7 +4447,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A510">
+      <c r="A510" s="1">
         <v>42731</v>
       </c>
       <c r="B510">
@@ -4455,7 +4455,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A511">
+      <c r="A511" s="1">
         <v>42732</v>
       </c>
       <c r="B511">
@@ -4463,7 +4463,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A512">
+      <c r="A512" s="1">
         <v>42733</v>
       </c>
       <c r="B512">
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A513">
+      <c r="A513" s="1">
         <v>42734</v>
       </c>
       <c r="B513">
@@ -4479,7 +4479,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A514">
+      <c r="A514" s="1">
         <v>42735</v>
       </c>
       <c r="B514">
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A515">
+      <c r="A515" s="1">
         <v>42736</v>
       </c>
       <c r="B515">
@@ -4495,7 +4495,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A516">
+      <c r="A516" s="1">
         <v>42737</v>
       </c>
       <c r="B516">
@@ -4503,7 +4503,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A517">
+      <c r="A517" s="1">
         <v>42738</v>
       </c>
       <c r="B517">
@@ -4511,7 +4511,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A518">
+      <c r="A518" s="1">
         <v>42739</v>
       </c>
       <c r="B518">
@@ -4519,7 +4519,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A519">
+      <c r="A519" s="1">
         <v>42740</v>
       </c>
       <c r="B519">
@@ -4527,7 +4527,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A520">
+      <c r="A520" s="1">
         <v>42741</v>
       </c>
       <c r="B520">
@@ -4535,7 +4535,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A521">
+      <c r="A521" s="1">
         <v>42742</v>
       </c>
       <c r="B521">
@@ -4543,7 +4543,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A522">
+      <c r="A522" s="1">
         <v>42743</v>
       </c>
       <c r="B522">
@@ -4551,7 +4551,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A523">
+      <c r="A523" s="1">
         <v>42744</v>
       </c>
       <c r="B523">
@@ -4559,7 +4559,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A524">
+      <c r="A524" s="1">
         <v>42745</v>
       </c>
       <c r="B524">
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A525">
+      <c r="A525" s="1">
         <v>42746</v>
       </c>
       <c r="B525">
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A526">
+      <c r="A526" s="1">
         <v>42747</v>
       </c>
       <c r="B526">
@@ -4583,7 +4583,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A527">
+      <c r="A527" s="1">
         <v>42748</v>
       </c>
       <c r="B527">
@@ -4591,7 +4591,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A528">
+      <c r="A528" s="1">
         <v>42749</v>
       </c>
       <c r="B528">
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A529">
+      <c r="A529" s="1">
         <v>42750</v>
       </c>
       <c r="B529">
@@ -4607,7 +4607,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A530">
+      <c r="A530" s="1">
         <v>42751</v>
       </c>
       <c r="B530">
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A531">
+      <c r="A531" s="1">
         <v>42752</v>
       </c>
       <c r="B531">
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A532">
+      <c r="A532" s="1">
         <v>42753</v>
       </c>
       <c r="B532">
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A533">
+      <c r="A533" s="1">
         <v>42754</v>
       </c>
       <c r="B533">
@@ -4639,7 +4639,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A534">
+      <c r="A534" s="1">
         <v>42755</v>
       </c>
       <c r="B534">
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A535">
+      <c r="A535" s="1">
         <v>42756</v>
       </c>
       <c r="B535">
@@ -4655,7 +4655,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A536">
+      <c r="A536" s="1">
         <v>42757</v>
       </c>
       <c r="B536">
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A537">
+      <c r="A537" s="1">
         <v>42758</v>
       </c>
       <c r="B537">
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A538">
+      <c r="A538" s="1">
         <v>42759</v>
       </c>
       <c r="B538">
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A539">
+      <c r="A539" s="1">
         <v>42760</v>
       </c>
       <c r="B539">
@@ -4687,7 +4687,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A540">
+      <c r="A540" s="1">
         <v>42761</v>
       </c>
       <c r="B540">
@@ -4695,7 +4695,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A541">
+      <c r="A541" s="1">
         <v>42762</v>
       </c>
       <c r="B541">
@@ -4703,7 +4703,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A542">
+      <c r="A542" s="1">
         <v>42763</v>
       </c>
       <c r="B542">
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A543">
+      <c r="A543" s="1">
         <v>42764</v>
       </c>
       <c r="B543">
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A544">
+      <c r="A544" s="1">
         <v>42765</v>
       </c>
       <c r="B544">
@@ -4727,7 +4727,7 @@
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A545">
+      <c r="A545" s="1">
         <v>42766</v>
       </c>
       <c r="B545">
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A546">
+      <c r="A546" s="1">
         <v>42767</v>
       </c>
       <c r="B546">
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A547">
+      <c r="A547" s="1">
         <v>42768</v>
       </c>
       <c r="B547">
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A548">
+      <c r="A548" s="1">
         <v>42769</v>
       </c>
       <c r="B548">
@@ -4759,7 +4759,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A549">
+      <c r="A549" s="1">
         <v>42770</v>
       </c>
       <c r="B549">
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A550">
+      <c r="A550" s="1">
         <v>42771</v>
       </c>
       <c r="B550">
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A551">
+      <c r="A551" s="1">
         <v>42772</v>
       </c>
       <c r="B551">
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A552">
+      <c r="A552" s="1">
         <v>42773</v>
       </c>
       <c r="B552">
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A553">
+      <c r="A553" s="1">
         <v>42774</v>
       </c>
       <c r="B553">
@@ -4799,7 +4799,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A554">
+      <c r="A554" s="1">
         <v>42775</v>
       </c>
       <c r="B554">
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A555">
+      <c r="A555" s="1">
         <v>42776</v>
       </c>
       <c r="B555">
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A556">
+      <c r="A556" s="1">
         <v>42777</v>
       </c>
       <c r="B556">
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A557">
+      <c r="A557" s="1">
         <v>42778</v>
       </c>
       <c r="B557">
@@ -4831,7 +4831,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A558">
+      <c r="A558" s="1">
         <v>42779</v>
       </c>
       <c r="B558">
@@ -4839,7 +4839,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A559">
+      <c r="A559" s="1">
         <v>42780</v>
       </c>
       <c r="B559">
@@ -4847,7 +4847,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A560">
+      <c r="A560" s="1">
         <v>42781</v>
       </c>
       <c r="B560">
@@ -4855,7 +4855,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A561">
+      <c r="A561" s="1">
         <v>42782</v>
       </c>
       <c r="B561">
@@ -4863,7 +4863,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A562">
+      <c r="A562" s="1">
         <v>42783</v>
       </c>
       <c r="B562">
@@ -4871,7 +4871,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A563">
+      <c r="A563" s="1">
         <v>42784</v>
       </c>
       <c r="B563">
@@ -4879,7 +4879,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A564">
+      <c r="A564" s="1">
         <v>42785</v>
       </c>
       <c r="B564">
@@ -4887,7 +4887,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A565">
+      <c r="A565" s="1">
         <v>42786</v>
       </c>
       <c r="B565">
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A566">
+      <c r="A566" s="1">
         <v>42787</v>
       </c>
       <c r="B566">
@@ -4903,7 +4903,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A567">
+      <c r="A567" s="1">
         <v>42788</v>
       </c>
       <c r="B567">
@@ -4911,7 +4911,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A568">
+      <c r="A568" s="1">
         <v>42789</v>
       </c>
       <c r="B568">
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A569">
+      <c r="A569" s="1">
         <v>42790</v>
       </c>
       <c r="B569">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A570">
+      <c r="A570" s="1">
         <v>42791</v>
       </c>
       <c r="B570">
@@ -4935,7 +4935,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A571">
+      <c r="A571" s="1">
         <v>42792</v>
       </c>
       <c r="B571">
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A572">
+      <c r="A572" s="1">
         <v>42793</v>
       </c>
       <c r="B572">
@@ -4951,7 +4951,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A573">
+      <c r="A573" s="1">
         <v>42794</v>
       </c>
       <c r="B573">
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A574">
+      <c r="A574" s="1">
         <v>42795</v>
       </c>
       <c r="B574">
@@ -4967,7 +4967,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A575">
+      <c r="A575" s="1">
         <v>42796</v>
       </c>
       <c r="B575">
@@ -4975,7 +4975,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A576">
+      <c r="A576" s="1">
         <v>42797</v>
       </c>
       <c r="B576">
@@ -4983,7 +4983,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A577">
+      <c r="A577" s="1">
         <v>42798</v>
       </c>
       <c r="B577">
@@ -4991,7 +4991,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A578">
+      <c r="A578" s="1">
         <v>42799</v>
       </c>
       <c r="B578">
@@ -4999,7 +4999,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A579">
+      <c r="A579" s="1">
         <v>42800</v>
       </c>
       <c r="B579">
@@ -5007,7 +5007,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A580">
+      <c r="A580" s="1">
         <v>42801</v>
       </c>
       <c r="B580">
@@ -5015,7 +5015,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A581">
+      <c r="A581" s="1">
         <v>42802</v>
       </c>
       <c r="B581">
@@ -5023,7 +5023,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A582">
+      <c r="A582" s="1">
         <v>42803</v>
       </c>
       <c r="B582">
@@ -5031,7 +5031,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A583">
+      <c r="A583" s="1">
         <v>42804</v>
       </c>
       <c r="B583">
@@ -5039,7 +5039,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A584">
+      <c r="A584" s="1">
         <v>42805</v>
       </c>
       <c r="B584">
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A585">
+      <c r="A585" s="1">
         <v>42806</v>
       </c>
       <c r="B585">
@@ -5055,7 +5055,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A586">
+      <c r="A586" s="1">
         <v>42807</v>
       </c>
       <c r="B586">
@@ -5063,7 +5063,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A587">
+      <c r="A587" s="1">
         <v>42808</v>
       </c>
       <c r="B587">
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A588">
+      <c r="A588" s="1">
         <v>42809</v>
       </c>
       <c r="B588">
@@ -5079,7 +5079,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A589">
+      <c r="A589" s="1">
         <v>42810</v>
       </c>
       <c r="B589">
@@ -5087,7 +5087,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A590">
+      <c r="A590" s="1">
         <v>42811</v>
       </c>
       <c r="B590">
@@ -5095,7 +5095,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A591">
+      <c r="A591" s="1">
         <v>42812</v>
       </c>
       <c r="B591">
@@ -5103,7 +5103,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A592">
+      <c r="A592" s="1">
         <v>42813</v>
       </c>
       <c r="B592">
@@ -5111,7 +5111,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A593">
+      <c r="A593" s="1">
         <v>42814</v>
       </c>
       <c r="B593">
@@ -5119,7 +5119,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A594">
+      <c r="A594" s="1">
         <v>42815</v>
       </c>
       <c r="B594">
@@ -5127,7 +5127,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A595">
+      <c r="A595" s="1">
         <v>42816</v>
       </c>
       <c r="B595">
@@ -5135,7 +5135,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A596">
+      <c r="A596" s="1">
         <v>42817</v>
       </c>
       <c r="B596">
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A597">
+      <c r="A597" s="1">
         <v>42818</v>
       </c>
       <c r="B597">
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A598">
+      <c r="A598" s="1">
         <v>42819</v>
       </c>
       <c r="B598">
@@ -5159,7 +5159,7 @@
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A599">
+      <c r="A599" s="1">
         <v>42820</v>
       </c>
       <c r="B599">
@@ -5167,7 +5167,7 @@
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A600">
+      <c r="A600" s="1">
         <v>42821</v>
       </c>
       <c r="B600">
@@ -5175,7 +5175,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A601">
+      <c r="A601" s="1">
         <v>42822</v>
       </c>
       <c r="B601">
@@ -5183,7 +5183,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A602">
+      <c r="A602" s="1">
         <v>42823</v>
       </c>
       <c r="B602">
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A603">
+      <c r="A603" s="1">
         <v>42824</v>
       </c>
       <c r="B603">
@@ -5199,7 +5199,7 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A604">
+      <c r="A604" s="1">
         <v>42825</v>
       </c>
       <c r="B604">
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A605">
+      <c r="A605" s="1">
         <v>42826</v>
       </c>
       <c r="B605">
@@ -5215,7 +5215,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A606">
+      <c r="A606" s="1">
         <v>42827</v>
       </c>
       <c r="B606">
@@ -5223,7 +5223,7 @@
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A607">
+      <c r="A607" s="1">
         <v>42828</v>
       </c>
       <c r="B607">
@@ -5231,7 +5231,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A608">
+      <c r="A608" s="1">
         <v>42829</v>
       </c>
       <c r="B608">
@@ -5239,7 +5239,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A609">
+      <c r="A609" s="1">
         <v>42830</v>
       </c>
       <c r="B609">
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A610">
+      <c r="A610" s="1">
         <v>42831</v>
       </c>
       <c r="B610">
@@ -5255,7 +5255,7 @@
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A611">
+      <c r="A611" s="1">
         <v>42832</v>
       </c>
       <c r="B611">
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A612">
+      <c r="A612" s="1">
         <v>42833</v>
       </c>
       <c r="B612">
@@ -5271,7 +5271,7 @@
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A613">
+      <c r="A613" s="1">
         <v>42834</v>
       </c>
       <c r="B613">
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A614">
+      <c r="A614" s="1">
         <v>42835</v>
       </c>
       <c r="B614">
@@ -5287,7 +5287,7 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A615">
+      <c r="A615" s="1">
         <v>42836</v>
       </c>
       <c r="B615">
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A616">
+      <c r="A616" s="1">
         <v>42837</v>
       </c>
       <c r="B616">
@@ -5303,7 +5303,7 @@
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A617">
+      <c r="A617" s="1">
         <v>42838</v>
       </c>
       <c r="B617">
@@ -5311,7 +5311,7 @@
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A618">
+      <c r="A618" s="1">
         <v>42839</v>
       </c>
       <c r="B618">
@@ -5319,7 +5319,7 @@
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A619">
+      <c r="A619" s="1">
         <v>42840</v>
       </c>
       <c r="B619">
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A620">
+      <c r="A620" s="1">
         <v>42841</v>
       </c>
       <c r="B620">
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A621">
+      <c r="A621" s="1">
         <v>42842</v>
       </c>
       <c r="B621">
@@ -5343,7 +5343,7 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A622">
+      <c r="A622" s="1">
         <v>42843</v>
       </c>
       <c r="B622">
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A623">
+      <c r="A623" s="1">
         <v>42844</v>
       </c>
       <c r="B623">
@@ -5359,7 +5359,7 @@
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A624">
+      <c r="A624" s="1">
         <v>42845</v>
       </c>
       <c r="B624">
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A625">
+      <c r="A625" s="1">
         <v>42846</v>
       </c>
       <c r="B625">
@@ -5375,7 +5375,7 @@
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A626">
+      <c r="A626" s="1">
         <v>42847</v>
       </c>
       <c r="B626">
@@ -5383,7 +5383,7 @@
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A627">
+      <c r="A627" s="1">
         <v>42848</v>
       </c>
       <c r="B627">
@@ -5391,7 +5391,7 @@
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A628">
+      <c r="A628" s="1">
         <v>42849</v>
       </c>
       <c r="B628">
@@ -5399,7 +5399,7 @@
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A629">
+      <c r="A629" s="1">
         <v>42850</v>
       </c>
       <c r="B629">
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A630">
+      <c r="A630" s="1">
         <v>42851</v>
       </c>
       <c r="B630">
@@ -5415,7 +5415,7 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A631">
+      <c r="A631" s="1">
         <v>42852</v>
       </c>
       <c r="B631">
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A632">
+      <c r="A632" s="1">
         <v>42853</v>
       </c>
       <c r="B632">
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A633">
+      <c r="A633" s="1">
         <v>42854</v>
       </c>
       <c r="B633">
@@ -5439,7 +5439,7 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A634">
+      <c r="A634" s="1">
         <v>42855</v>
       </c>
       <c r="B634">
@@ -5447,7 +5447,7 @@
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A635">
+      <c r="A635" s="1">
         <v>42856</v>
       </c>
       <c r="B635">
@@ -5455,7 +5455,7 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A636">
+      <c r="A636" s="1">
         <v>42857</v>
       </c>
       <c r="B636">
@@ -5463,7 +5463,7 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A637">
+      <c r="A637" s="1">
         <v>42858</v>
       </c>
       <c r="B637">
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A638">
+      <c r="A638" s="1">
         <v>42859</v>
       </c>
       <c r="B638">
@@ -5479,7 +5479,7 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A639">
+      <c r="A639" s="1">
         <v>42860</v>
       </c>
       <c r="B639">
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A640">
+      <c r="A640" s="1">
         <v>42861</v>
       </c>
       <c r="B640">
@@ -5495,7 +5495,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A641">
+      <c r="A641" s="1">
         <v>42862</v>
       </c>
       <c r="B641">
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A642">
+      <c r="A642" s="1">
         <v>42863</v>
       </c>
       <c r="B642">
@@ -5511,7 +5511,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A643">
+      <c r="A643" s="1">
         <v>42864</v>
       </c>
       <c r="B643">
@@ -5519,7 +5519,7 @@
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A644">
+      <c r="A644" s="1">
         <v>42865</v>
       </c>
       <c r="B644">
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A645">
+      <c r="A645" s="1">
         <v>42866</v>
       </c>
       <c r="B645">
@@ -5535,7 +5535,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A646">
+      <c r="A646" s="1">
         <v>42867</v>
       </c>
       <c r="B646">
@@ -5543,7 +5543,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A647">
+      <c r="A647" s="1">
         <v>42868</v>
       </c>
       <c r="B647">
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A648">
+      <c r="A648" s="1">
         <v>42869</v>
       </c>
       <c r="B648">
@@ -5559,7 +5559,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A649">
+      <c r="A649" s="1">
         <v>42870</v>
       </c>
       <c r="B649">
@@ -5567,7 +5567,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A650">
+      <c r="A650" s="1">
         <v>42871</v>
       </c>
       <c r="B650">
@@ -5575,7 +5575,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A651">
+      <c r="A651" s="1">
         <v>42872</v>
       </c>
       <c r="B651">
@@ -5583,7 +5583,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A652">
+      <c r="A652" s="1">
         <v>42873</v>
       </c>
       <c r="B652">
@@ -5591,7 +5591,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A653">
+      <c r="A653" s="1">
         <v>42874</v>
       </c>
       <c r="B653">
@@ -5599,7 +5599,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A654">
+      <c r="A654" s="1">
         <v>42875</v>
       </c>
       <c r="B654">
@@ -5607,7 +5607,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A655">
+      <c r="A655" s="1">
         <v>42876</v>
       </c>
       <c r="B655">
@@ -5615,7 +5615,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A656">
+      <c r="A656" s="1">
         <v>42877</v>
       </c>
       <c r="B656">
@@ -5623,7 +5623,7 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A657">
+      <c r="A657" s="1">
         <v>42878</v>
       </c>
       <c r="B657">
@@ -5631,7 +5631,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A658">
+      <c r="A658" s="1">
         <v>42879</v>
       </c>
       <c r="B658">
@@ -5639,7 +5639,7 @@
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A659">
+      <c r="A659" s="1">
         <v>42880</v>
       </c>
       <c r="B659">
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A660">
+      <c r="A660" s="1">
         <v>42881</v>
       </c>
       <c r="B660">
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A661">
+      <c r="A661" s="1">
         <v>42882</v>
       </c>
       <c r="B661">
@@ -5663,7 +5663,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A662">
+      <c r="A662" s="1">
         <v>42883</v>
       </c>
       <c r="B662">
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A663">
+      <c r="A663" s="1">
         <v>42884</v>
       </c>
       <c r="B663">
@@ -5679,7 +5679,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A664">
+      <c r="A664" s="1">
         <v>42885</v>
       </c>
       <c r="B664">
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A665">
+      <c r="A665" s="1">
         <v>42886</v>
       </c>
       <c r="B665">
@@ -5695,7 +5695,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A666">
+      <c r="A666" s="1">
         <v>42887</v>
       </c>
       <c r="B666">
@@ -5703,7 +5703,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A667">
+      <c r="A667" s="1">
         <v>42888</v>
       </c>
       <c r="B667">
@@ -5711,7 +5711,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A668">
+      <c r="A668" s="1">
         <v>42889</v>
       </c>
       <c r="B668">
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A669">
+      <c r="A669" s="1">
         <v>42890</v>
       </c>
       <c r="B669">
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A670">
+      <c r="A670" s="1">
         <v>42891</v>
       </c>
       <c r="B670">
@@ -5735,7 +5735,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A671">
+      <c r="A671" s="1">
         <v>42892</v>
       </c>
       <c r="B671">
@@ -5743,7 +5743,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A672">
+      <c r="A672" s="1">
         <v>42893</v>
       </c>
       <c r="B672">
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A673">
+      <c r="A673" s="1">
         <v>42894</v>
       </c>
       <c r="B673">
@@ -5759,7 +5759,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A674">
+      <c r="A674" s="1">
         <v>42895</v>
       </c>
       <c r="B674">
@@ -5767,7 +5767,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A675">
+      <c r="A675" s="1">
         <v>42896</v>
       </c>
       <c r="B675">
@@ -5775,7 +5775,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A676">
+      <c r="A676" s="1">
         <v>42897</v>
       </c>
       <c r="B676">
@@ -5783,7 +5783,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A677">
+      <c r="A677" s="1">
         <v>42898</v>
       </c>
       <c r="B677">
@@ -5791,7 +5791,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A678">
+      <c r="A678" s="1">
         <v>42899</v>
       </c>
       <c r="B678">
@@ -5799,7 +5799,7 @@
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A679">
+      <c r="A679" s="1">
         <v>42900</v>
       </c>
       <c r="B679">
@@ -5807,7 +5807,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A680">
+      <c r="A680" s="1">
         <v>42901</v>
       </c>
       <c r="B680">
@@ -5815,7 +5815,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A681">
+      <c r="A681" s="1">
         <v>42902</v>
       </c>
       <c r="B681">
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A682">
+      <c r="A682" s="1">
         <v>42903</v>
       </c>
       <c r="B682">
@@ -5831,7 +5831,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A683">
+      <c r="A683" s="1">
         <v>42904</v>
       </c>
       <c r="B683">
@@ -5839,7 +5839,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A684">
+      <c r="A684" s="1">
         <v>42905</v>
       </c>
       <c r="B684">
@@ -5847,7 +5847,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A685">
+      <c r="A685" s="1">
         <v>42906</v>
       </c>
       <c r="B685">
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A686">
+      <c r="A686" s="1">
         <v>42907</v>
       </c>
       <c r="B686">
@@ -5863,7 +5863,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A687">
+      <c r="A687" s="1">
         <v>42908</v>
       </c>
       <c r="B687">
@@ -5871,7 +5871,7 @@
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A688">
+      <c r="A688" s="1">
         <v>42909</v>
       </c>
       <c r="B688">
@@ -5879,7 +5879,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A689">
+      <c r="A689" s="1">
         <v>42910</v>
       </c>
       <c r="B689">
@@ -5887,7 +5887,7 @@
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A690">
+      <c r="A690" s="1">
         <v>42911</v>
       </c>
       <c r="B690">
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A691">
+      <c r="A691" s="1">
         <v>42912</v>
       </c>
       <c r="B691">
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A692">
+      <c r="A692" s="1">
         <v>42913</v>
       </c>
       <c r="B692">
@@ -5911,7 +5911,7 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A693">
+      <c r="A693" s="1">
         <v>42914</v>
       </c>
       <c r="B693">
@@ -5919,7 +5919,7 @@
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A694">
+      <c r="A694" s="1">
         <v>42915</v>
       </c>
       <c r="B694">
@@ -5927,7 +5927,7 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A695">
+      <c r="A695" s="1">
         <v>42916</v>
       </c>
       <c r="B695">
@@ -5935,7 +5935,7 @@
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A696">
+      <c r="A696" s="1">
         <v>42917</v>
       </c>
       <c r="B696">
@@ -5943,7 +5943,7 @@
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A697">
+      <c r="A697" s="1">
         <v>42918</v>
       </c>
       <c r="B697">
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A698">
+      <c r="A698" s="1">
         <v>42919</v>
       </c>
       <c r="B698">
@@ -5959,7 +5959,7 @@
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A699">
+      <c r="A699" s="1">
         <v>42920</v>
       </c>
       <c r="B699">
@@ -5967,7 +5967,7 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A700">
+      <c r="A700" s="1">
         <v>42921</v>
       </c>
       <c r="B700">
@@ -5975,7 +5975,7 @@
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A701">
+      <c r="A701" s="1">
         <v>42922</v>
       </c>
       <c r="B701">
@@ -5983,7 +5983,7 @@
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A702">
+      <c r="A702" s="1">
         <v>42923</v>
       </c>
       <c r="B702">
@@ -5991,7 +5991,7 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A703">
+      <c r="A703" s="1">
         <v>42924</v>
       </c>
       <c r="B703">
@@ -5999,7 +5999,7 @@
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A704">
+      <c r="A704" s="1">
         <v>42925</v>
       </c>
       <c r="B704">
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A705">
+      <c r="A705" s="1">
         <v>42926</v>
       </c>
       <c r="B705">
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A706">
+      <c r="A706" s="1">
         <v>42927</v>
       </c>
       <c r="B706">
@@ -6023,7 +6023,7 @@
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A707">
+      <c r="A707" s="1">
         <v>42928</v>
       </c>
       <c r="B707">
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A708">
+      <c r="A708" s="1">
         <v>42929</v>
       </c>
       <c r="B708">
@@ -6039,7 +6039,7 @@
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A709">
+      <c r="A709" s="1">
         <v>42930</v>
       </c>
       <c r="B709">
@@ -6047,7 +6047,7 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A710">
+      <c r="A710" s="1">
         <v>42931</v>
       </c>
       <c r="B710">
@@ -6055,7 +6055,7 @@
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A711">
+      <c r="A711" s="1">
         <v>42932</v>
       </c>
       <c r="B711">
@@ -6063,7 +6063,7 @@
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A712">
+      <c r="A712" s="1">
         <v>42933</v>
       </c>
       <c r="B712">
@@ -6071,7 +6071,7 @@
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A713">
+      <c r="A713" s="1">
         <v>42934</v>
       </c>
       <c r="B713">
@@ -6079,7 +6079,7 @@
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A714">
+      <c r="A714" s="1">
         <v>42935</v>
       </c>
       <c r="B714">
@@ -6087,7 +6087,7 @@
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A715">
+      <c r="A715" s="1">
         <v>42936</v>
       </c>
       <c r="B715">
@@ -6095,7 +6095,7 @@
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A716">
+      <c r="A716" s="1">
         <v>42937</v>
       </c>
       <c r="B716">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A717">
+      <c r="A717" s="1">
         <v>42938</v>
       </c>
       <c r="B717">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A718">
+      <c r="A718" s="1">
         <v>42939</v>
       </c>
       <c r="B718">
@@ -6119,7 +6119,7 @@
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A719">
+      <c r="A719" s="1">
         <v>42940</v>
       </c>
       <c r="B719">
@@ -6127,7 +6127,7 @@
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A720">
+      <c r="A720" s="1">
         <v>42941</v>
       </c>
       <c r="B720">
@@ -6135,7 +6135,7 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A721">
+      <c r="A721" s="1">
         <v>42942</v>
       </c>
       <c r="B721">
@@ -6143,7 +6143,7 @@
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A722">
+      <c r="A722" s="1">
         <v>42943</v>
       </c>
       <c r="B722">
@@ -6151,7 +6151,7 @@
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A723">
+      <c r="A723" s="1">
         <v>42944</v>
       </c>
       <c r="B723">
@@ -6159,7 +6159,7 @@
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A724">
+      <c r="A724" s="1">
         <v>42945</v>
       </c>
       <c r="B724">
@@ -6167,7 +6167,7 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A725">
+      <c r="A725" s="1">
         <v>42946</v>
       </c>
       <c r="B725">
@@ -6175,7 +6175,7 @@
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A726">
+      <c r="A726" s="1">
         <v>42947</v>
       </c>
       <c r="B726">
@@ -6183,7 +6183,7 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A727">
+      <c r="A727" s="1">
         <v>42948</v>
       </c>
       <c r="B727">
@@ -6191,7 +6191,7 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A728">
+      <c r="A728" s="1">
         <v>42949</v>
       </c>
       <c r="B728">
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A729">
+      <c r="A729" s="1">
         <v>42950</v>
       </c>
       <c r="B729">
@@ -6207,7 +6207,7 @@
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A730">
+      <c r="A730" s="1">
         <v>42951</v>
       </c>
       <c r="B730">
@@ -6215,7 +6215,7 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A731">
+      <c r="A731" s="1">
         <v>42952</v>
       </c>
       <c r="B731">
@@ -6223,7 +6223,7 @@
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A732">
+      <c r="A732" s="1">
         <v>42953</v>
       </c>
       <c r="B732">
@@ -6231,7 +6231,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A733">
+      <c r="A733" s="1">
         <v>42954</v>
       </c>
       <c r="B733">
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A734">
+      <c r="A734" s="1">
         <v>42955</v>
       </c>
       <c r="B734">
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A735">
+      <c r="A735" s="1">
         <v>42956</v>
       </c>
       <c r="B735">
@@ -6255,7 +6255,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A736">
+      <c r="A736" s="1">
         <v>42957</v>
       </c>
       <c r="B736">
@@ -6263,7 +6263,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A737">
+      <c r="A737" s="1">
         <v>42958</v>
       </c>
       <c r="B737">
@@ -6271,7 +6271,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A738">
+      <c r="A738" s="1">
         <v>42959</v>
       </c>
       <c r="B738">
@@ -6279,7 +6279,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A739">
+      <c r="A739" s="1">
         <v>42960</v>
       </c>
       <c r="B739">
@@ -6287,7 +6287,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A740">
+      <c r="A740" s="1">
         <v>42961</v>
       </c>
       <c r="B740">
@@ -6295,7 +6295,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A741">
+      <c r="A741" s="1">
         <v>42962</v>
       </c>
       <c r="B741">
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A742">
+      <c r="A742" s="1">
         <v>42963</v>
       </c>
       <c r="B742">
@@ -6311,7 +6311,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A743">
+      <c r="A743" s="1">
         <v>42964</v>
       </c>
       <c r="B743">
@@ -6319,7 +6319,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A744">
+      <c r="A744" s="1">
         <v>42965</v>
       </c>
       <c r="B744">
@@ -6327,7 +6327,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A745">
+      <c r="A745" s="1">
         <v>42966</v>
       </c>
       <c r="B745">
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A746">
+      <c r="A746" s="1">
         <v>42967</v>
       </c>
       <c r="B746">
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A747">
+      <c r="A747" s="1">
         <v>42968</v>
       </c>
       <c r="B747">
@@ -6351,7 +6351,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A748">
+      <c r="A748" s="1">
         <v>42969</v>
       </c>
       <c r="B748">
@@ -6359,7 +6359,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A749">
+      <c r="A749" s="1">
         <v>42970</v>
       </c>
       <c r="B749">
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A750">
+      <c r="A750" s="1">
         <v>42971</v>
       </c>
       <c r="B750">
@@ -6375,7 +6375,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A751">
+      <c r="A751" s="1">
         <v>42972</v>
       </c>
       <c r="B751">
@@ -6383,7 +6383,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A752">
+      <c r="A752" s="1">
         <v>42973</v>
       </c>
       <c r="B752">
@@ -6391,7 +6391,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A753">
+      <c r="A753" s="1">
         <v>42974</v>
       </c>
       <c r="B753">
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A754">
+      <c r="A754" s="1">
         <v>42975</v>
       </c>
       <c r="B754">
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A755">
+      <c r="A755" s="1">
         <v>42976</v>
       </c>
       <c r="B755">
@@ -6415,7 +6415,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A756">
+      <c r="A756" s="1">
         <v>42977</v>
       </c>
       <c r="B756">
@@ -6423,7 +6423,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A757">
+      <c r="A757" s="1">
         <v>42978</v>
       </c>
       <c r="B757">
@@ -6431,7 +6431,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A758">
+      <c r="A758" s="1">
         <v>42979</v>
       </c>
       <c r="B758">
@@ -6439,7 +6439,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A759">
+      <c r="A759" s="1">
         <v>42980</v>
       </c>
       <c r="B759">
@@ -6447,7 +6447,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A760">
+      <c r="A760" s="1">
         <v>42981</v>
       </c>
       <c r="B760">
@@ -6455,7 +6455,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A761">
+      <c r="A761" s="1">
         <v>42982</v>
       </c>
       <c r="B761">
@@ -6463,7 +6463,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A762">
+      <c r="A762" s="1">
         <v>42983</v>
       </c>
       <c r="B762">
@@ -6471,7 +6471,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A763">
+      <c r="A763" s="1">
         <v>42984</v>
       </c>
       <c r="B763">
@@ -6479,7 +6479,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A764">
+      <c r="A764" s="1">
         <v>42985</v>
       </c>
       <c r="B764">
@@ -6487,7 +6487,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A765">
+      <c r="A765" s="1">
         <v>42986</v>
       </c>
       <c r="B765">
@@ -6495,7 +6495,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A766">
+      <c r="A766" s="1">
         <v>42987</v>
       </c>
       <c r="B766">
@@ -6503,7 +6503,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A767">
+      <c r="A767" s="1">
         <v>42988</v>
       </c>
       <c r="B767">
@@ -6511,7 +6511,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A768">
+      <c r="A768" s="1">
         <v>42989</v>
       </c>
       <c r="B768">
@@ -6519,7 +6519,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A769">
+      <c r="A769" s="1">
         <v>42990</v>
       </c>
       <c r="B769">
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A770">
+      <c r="A770" s="1">
         <v>42991</v>
       </c>
       <c r="B770">
@@ -6535,7 +6535,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A771">
+      <c r="A771" s="1">
         <v>42992</v>
       </c>
       <c r="B771">
@@ -6543,7 +6543,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A772">
+      <c r="A772" s="1">
         <v>42993</v>
       </c>
       <c r="B772">
@@ -6551,7 +6551,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A773">
+      <c r="A773" s="1">
         <v>42994</v>
       </c>
       <c r="B773">
@@ -6559,7 +6559,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A774">
+      <c r="A774" s="1">
         <v>42995</v>
       </c>
       <c r="B774">
@@ -6567,7 +6567,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A775">
+      <c r="A775" s="1">
         <v>42996</v>
       </c>
       <c r="B775">
@@ -6575,7 +6575,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A776">
+      <c r="A776" s="1">
         <v>42997</v>
       </c>
       <c r="B776">
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A777">
+      <c r="A777" s="1">
         <v>42998</v>
       </c>
       <c r="B777">
@@ -6591,7 +6591,7 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A778">
+      <c r="A778" s="1">
         <v>42999</v>
       </c>
       <c r="B778">
@@ -6599,7 +6599,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A779">
+      <c r="A779" s="1">
         <v>43000</v>
       </c>
       <c r="B779">
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A780">
+      <c r="A780" s="1">
         <v>43001</v>
       </c>
       <c r="B780">
@@ -6615,7 +6615,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A781">
+      <c r="A781" s="1">
         <v>43002</v>
       </c>
       <c r="B781">
@@ -6623,7 +6623,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A782">
+      <c r="A782" s="1">
         <v>43003</v>
       </c>
       <c r="B782">
@@ -6631,7 +6631,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A783">
+      <c r="A783" s="1">
         <v>43004</v>
       </c>
       <c r="B783">
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A784">
+      <c r="A784" s="1">
         <v>43005</v>
       </c>
       <c r="B784">
@@ -6647,7 +6647,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A785">
+      <c r="A785" s="1">
         <v>43006</v>
       </c>
       <c r="B785">
@@ -6655,7 +6655,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A786">
+      <c r="A786" s="1">
         <v>43007</v>
       </c>
       <c r="B786">
@@ -6663,7 +6663,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A787">
+      <c r="A787" s="1">
         <v>43008</v>
       </c>
       <c r="B787">
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A788">
+      <c r="A788" s="1">
         <v>43009</v>
       </c>
       <c r="B788">
@@ -6679,7 +6679,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A789">
+      <c r="A789" s="1">
         <v>43010</v>
       </c>
       <c r="B789">
@@ -6687,7 +6687,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A790">
+      <c r="A790" s="1">
         <v>43011</v>
       </c>
       <c r="B790">
@@ -6695,7 +6695,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A791">
+      <c r="A791" s="1">
         <v>43012</v>
       </c>
       <c r="B791">
@@ -6703,7 +6703,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A792">
+      <c r="A792" s="1">
         <v>43013</v>
       </c>
       <c r="B792">
@@ -6711,7 +6711,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A793">
+      <c r="A793" s="1">
         <v>43014</v>
       </c>
       <c r="B793">
@@ -6719,7 +6719,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A794">
+      <c r="A794" s="1">
         <v>43015</v>
       </c>
       <c r="B794">
@@ -6727,7 +6727,7 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A795">
+      <c r="A795" s="1">
         <v>43016</v>
       </c>
       <c r="B795">
@@ -6735,7 +6735,7 @@
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A796">
+      <c r="A796" s="1">
         <v>43017</v>
       </c>
       <c r="B796">
@@ -6743,7 +6743,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A797">
+      <c r="A797" s="1">
         <v>43018</v>
       </c>
       <c r="B797">
@@ -6751,7 +6751,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A798">
+      <c r="A798" s="1">
         <v>43019</v>
       </c>
       <c r="B798">
@@ -6759,7 +6759,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A799">
+      <c r="A799" s="1">
         <v>43020</v>
       </c>
       <c r="B799">
@@ -6767,7 +6767,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A800">
+      <c r="A800" s="1">
         <v>43021</v>
       </c>
       <c r="B800">
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A801">
+      <c r="A801" s="1">
         <v>43022</v>
       </c>
       <c r="B801">
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A802">
+      <c r="A802" s="1">
         <v>43023</v>
       </c>
       <c r="B802">
@@ -6791,7 +6791,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A803">
+      <c r="A803" s="1">
         <v>43024</v>
       </c>
       <c r="B803">
@@ -6799,7 +6799,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A804">
+      <c r="A804" s="1">
         <v>43025</v>
       </c>
       <c r="B804">
@@ -6807,7 +6807,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A805">
+      <c r="A805" s="1">
         <v>43026</v>
       </c>
       <c r="B805">
@@ -6815,7 +6815,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A806">
+      <c r="A806" s="1">
         <v>43027</v>
       </c>
       <c r="B806">
@@ -6823,7 +6823,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A807">
+      <c r="A807" s="1">
         <v>43028</v>
       </c>
       <c r="B807">
@@ -6831,7 +6831,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A808">
+      <c r="A808" s="1">
         <v>43029</v>
       </c>
       <c r="B808">
@@ -6839,7 +6839,7 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A809">
+      <c r="A809" s="1">
         <v>43030</v>
       </c>
       <c r="B809">
@@ -6847,7 +6847,7 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A810">
+      <c r="A810" s="1">
         <v>43031</v>
       </c>
       <c r="B810">
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A811">
+      <c r="A811" s="1">
         <v>43032</v>
       </c>
       <c r="B811">
@@ -6863,7 +6863,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A812">
+      <c r="A812" s="1">
         <v>43033</v>
       </c>
       <c r="B812">
@@ -6871,7 +6871,7 @@
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A813">
+      <c r="A813" s="1">
         <v>43034</v>
       </c>
       <c r="B813">
@@ -6879,7 +6879,7 @@
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A814">
+      <c r="A814" s="1">
         <v>43035</v>
       </c>
       <c r="B814">
@@ -6887,7 +6887,7 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A815">
+      <c r="A815" s="1">
         <v>43036</v>
       </c>
       <c r="B815">
@@ -6895,7 +6895,7 @@
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A816">
+      <c r="A816" s="1">
         <v>43037</v>
       </c>
       <c r="B816">
@@ -6903,7 +6903,7 @@
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A817">
+      <c r="A817" s="1">
         <v>43038</v>
       </c>
       <c r="B817">
@@ -6911,7 +6911,7 @@
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A818">
+      <c r="A818" s="1">
         <v>43039</v>
       </c>
       <c r="B818">
@@ -6919,7 +6919,7 @@
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A819">
+      <c r="A819" s="1">
         <v>43040</v>
       </c>
       <c r="B819">
@@ -6927,7 +6927,7 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A820">
+      <c r="A820" s="1">
         <v>43041</v>
       </c>
       <c r="B820">
@@ -6935,7 +6935,7 @@
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A821">
+      <c r="A821" s="1">
         <v>43042</v>
       </c>
       <c r="B821">
@@ -6943,7 +6943,7 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A822">
+      <c r="A822" s="1">
         <v>43043</v>
       </c>
       <c r="B822">
@@ -6951,7 +6951,7 @@
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A823">
+      <c r="A823" s="1">
         <v>43044</v>
       </c>
       <c r="B823">
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A824">
+      <c r="A824" s="1">
         <v>43045</v>
       </c>
       <c r="B824">
@@ -6967,7 +6967,7 @@
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A825">
+      <c r="A825" s="1">
         <v>43046</v>
       </c>
       <c r="B825">
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A826">
+      <c r="A826" s="1">
         <v>43047</v>
       </c>
       <c r="B826">
@@ -6983,7 +6983,7 @@
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A827">
+      <c r="A827" s="1">
         <v>43048</v>
       </c>
       <c r="B827">
@@ -6991,7 +6991,7 @@
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A828">
+      <c r="A828" s="1">
         <v>43049</v>
       </c>
       <c r="B828">
@@ -6999,7 +6999,7 @@
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A829">
+      <c r="A829" s="1">
         <v>43050</v>
       </c>
       <c r="B829">
@@ -7007,7 +7007,7 @@
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A830">
+      <c r="A830" s="1">
         <v>43051</v>
       </c>
       <c r="B830">
@@ -7015,7 +7015,7 @@
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A831">
+      <c r="A831" s="1">
         <v>43052</v>
       </c>
       <c r="B831">
@@ -7023,7 +7023,7 @@
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A832">
+      <c r="A832" s="1">
         <v>43053</v>
       </c>
       <c r="B832">
@@ -7031,7 +7031,7 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A833">
+      <c r="A833" s="1">
         <v>43054</v>
       </c>
       <c r="B833">
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A834">
+      <c r="A834" s="1">
         <v>43055</v>
       </c>
       <c r="B834">
@@ -7047,7 +7047,7 @@
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A835">
+      <c r="A835" s="1">
         <v>43056</v>
       </c>
       <c r="B835">
@@ -7055,7 +7055,7 @@
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A836">
+      <c r="A836" s="1">
         <v>43057</v>
       </c>
       <c r="B836">
@@ -7063,7 +7063,7 @@
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A837">
+      <c r="A837" s="1">
         <v>43058</v>
       </c>
       <c r="B837">
@@ -7071,7 +7071,7 @@
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A838">
+      <c r="A838" s="1">
         <v>43059</v>
       </c>
       <c r="B838">
@@ -7079,7 +7079,7 @@
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A839">
+      <c r="A839" s="1">
         <v>43060</v>
       </c>
       <c r="B839">
@@ -7087,7 +7087,7 @@
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A840">
+      <c r="A840" s="1">
         <v>43061</v>
       </c>
       <c r="B840">
@@ -7095,7 +7095,7 @@
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A841">
+      <c r="A841" s="1">
         <v>43062</v>
       </c>
       <c r="B841">
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A842">
+      <c r="A842" s="1">
         <v>43063</v>
       </c>
       <c r="B842">
@@ -7111,7 +7111,7 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A843">
+      <c r="A843" s="1">
         <v>43064</v>
       </c>
       <c r="B843">
@@ -7119,7 +7119,7 @@
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A844">
+      <c r="A844" s="1">
         <v>43065</v>
       </c>
       <c r="B844">
@@ -7127,7 +7127,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A845">
+      <c r="A845" s="1">
         <v>43066</v>
       </c>
       <c r="B845">
@@ -7135,7 +7135,7 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A846">
+      <c r="A846" s="1">
         <v>43067</v>
       </c>
       <c r="B846">
@@ -7143,7 +7143,7 @@
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A847">
+      <c r="A847" s="1">
         <v>43068</v>
       </c>
       <c r="B847">
@@ -7151,7 +7151,7 @@
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A848">
+      <c r="A848" s="1">
         <v>43069</v>
       </c>
       <c r="B848">
@@ -7159,7 +7159,7 @@
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A849">
+      <c r="A849" s="1">
         <v>43070</v>
       </c>
       <c r="B849">
@@ -7167,7 +7167,7 @@
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A850">
+      <c r="A850" s="1">
         <v>43071</v>
       </c>
       <c r="B850">
@@ -7175,7 +7175,7 @@
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A851">
+      <c r="A851" s="1">
         <v>43072</v>
       </c>
       <c r="B851">
@@ -7183,7 +7183,7 @@
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A852">
+      <c r="A852" s="1">
         <v>43073</v>
       </c>
       <c r="B852">
@@ -7191,7 +7191,7 @@
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A853">
+      <c r="A853" s="1">
         <v>43074</v>
       </c>
       <c r="B853">
@@ -7199,7 +7199,7 @@
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A854">
+      <c r="A854" s="1">
         <v>43075</v>
       </c>
       <c r="B854">
@@ -7207,7 +7207,7 @@
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A855">
+      <c r="A855" s="1">
         <v>43076</v>
       </c>
       <c r="B855">
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A856">
+      <c r="A856" s="1">
         <v>43077</v>
       </c>
       <c r="B856">
@@ -7223,7 +7223,7 @@
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A857">
+      <c r="A857" s="1">
         <v>43078</v>
       </c>
       <c r="B857">
@@ -7231,7 +7231,7 @@
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A858">
+      <c r="A858" s="1">
         <v>43079</v>
       </c>
       <c r="B858">
@@ -7239,7 +7239,7 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A859">
+      <c r="A859" s="1">
         <v>43080</v>
       </c>
       <c r="B859">
@@ -7247,7 +7247,7 @@
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A860">
+      <c r="A860" s="1">
         <v>43081</v>
       </c>
       <c r="B860">
